--- a/KG-fileList.xlsx
+++ b/KG-fileList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\KUMIO-Protocol-Analysis-Project-Management-WebSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE3B354-CE9A-4E54-A8F9-3217789938DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D2EE7-B4E1-45C3-93B2-0B7CD8BBBE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{55EF4403-E1A4-49DD-96BB-25271CCC22E2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +154,30 @@
   </si>
   <si>
     <t>İç avluya (N) girdiğim zaman surları ve kuleleri daha detaylı dinlemek bayağı keyifliydi. Çünkü bu bilgileri çok her yerden bulabileceğimiz bilgiler değildi. Sürekli böyle yürütmesi, hiç durdurmaması çok keyifliydi. Çoğu kulenin içine (GR) girip kulenin içine bakmak keyifliydi. Eskiden yaşadıkları zindanları bir kısmını görmek güzeldi ve biraz biraz ürperticiydi. Ve üst tarafa (GR) çıkartması, çıkartıp iki avluyu da görmesi... Mesela yukarı (GR) çıkartmasaydı belki de çok hani üşenirdim ve yukarı çıkmazdım. Ama yukarı(GR) çıktığım zaman aslında bir küçük avlu daha olduğunu fark ettim. Ve bir kara suru daha olmasını fark etmem de bence önemliydi. Yukarı (GR) taraftan Zeytinburnu'na ve bu iç avluya (N) bakmak baya güzel bir deneyimdi. Aslında şey dinlediğim şeyde bu kadar küçük bir avluda aslında ne kadar çok aktivitenin yapıldığını öğrendiğimde baya şaşırmıştım. Çünkü hani hem minare (N) var hem eskiden kız sanat akademisi tarzı bir şey olmuş falan böyle işte zindanmış bir sürü böyle değişik değişik şeyler olmuş ve şimdi de burasının (N) böyle açık hava sanat alanı gibi kullanılmasını öğrenmek de çok keyifliydi. Ve bu uygulamayı bayağı başarılı buluyorum. O yüzden sen de gelmelisin derdim.</t>
+  </si>
+  <si>
+    <t>KG_20</t>
+  </si>
+  <si>
+    <t>KG_21</t>
+  </si>
+  <si>
+    <t>KG_22</t>
+  </si>
+  <si>
+    <t>KG_23</t>
+  </si>
+  <si>
+    <t>Öncelikle şehrin merkezinde bulunmamış bir hazine olarak değerlendirirdim. Çünkü daha önce hiç burayı sadece sur olarak nitelendiriyorduk. İçinin böyle olduğunu bilmiyordum. Hazine Kulesi'ne gittik. Hazine Kulesi güzeldi ve özellikle o görselleştirme efekti daha da gerçekçi ve canlı kılıyordu. Girişin yanında oluyor zaten hazinenin.. Hazine Kulesi. Sonra kitabeli kuleyi gördük. Ortada bir mescit vardı ve çalışma içerisindeydi hala. Sonra Altınkapı vardı. Altınkapı daha çok dikkatimi çekti. O, özellikle geçmişten kalma barakalarda, tablette daha da canlı görselleştirildiği için daha da çok dikkatimi çekti ve hoşuma gitti. Özellikle sadece padişahların oradan geçmesi daha da ilgimi çekmişti. Yanında da Küçük Altınkapı var. Teras çok güzeldi. Sonra Genç Osman'ın öldürüldüğü yer de çok dikkatimi çekti. Eğer o canlandırma olmasaydı orayı sadece bir kapalı alan olarak görecektim. Ama o canlandırmayla birlikte daha gerçekçi kıldı ve direkt kafamda canlandı. Sonra oradan terasa çıktık. Teras manzarası çok güzeldi. Böyle.</t>
+  </si>
+  <si>
+    <t>Şöyle. İlk olarak kapıdan içeri girdiğimizde büyük bir avlu ile karşılaşıyoruz. Bu avlunun çevresinde de surlar var ve belli alanlarda da kuleler var. Her birinin işlevi farklı. Öncelikle bu kuleleri gezmekle işe başladık ve her bir kule için ya farklı işlevlerin o tarihte nasıl olduğunu gördük. Öncelikle kitabelerin olduğu ve eskiden burada mahkumların hapsedildiği bir kule vardı. Bu kulenin de yabancı mahkumlar hapsediliyormuş. Bu kulenin dışındaki alanlarda kitabe yazıları vardı. Bu kitabe yazıları da oradaki mahkumların yazdığı yazılarmış aslında. Bunu da uygulamadaki bilgi fiş… kutucuklarından öğrenmiş olduk. Sonrasında buradaki hazine yani altınların bulunduğu kuleyi ziyaret ettik. Burada da aslında beni etkileyen şey içeride küçük pencerelerin olduğu ve bu yapının kat kat olduğu ve hepsinin o kulenin ortasına baktığıydı aslında. Buralarda da ortada bir kuyu vardı diye hatırlıyorum. Sonrasında orta kısma ilerledik. Burada bir mescit vardı. Eskiden de yapılmış ve şu anda da restorasyonu süren, bu alanı deneyimledik, gözlemledik. Sonrasında diğer kuleye geçiş yaptık. Bu kulenin içerisi de şu an kötü durumda olduğu için girilemedi. Ama kapısından gözlemlediğimiz kadarıyla ve uygulamadan gördüğümüz kadarıyla bilgilendirildik. Sonrasında bu alana geçtik. Bu alanda da, köşe alanda da eskiden kurbanların.. Kurbanların verildiği bir alanmış onu öğrenmiş olduk. Sonrasında bu Altınkapı’ya doğru ilerledik. Altınkapı’da da şu an aslında çok küçük bir kısmı açık olarak gözüküyordu. Ortada bir büyük kapı, iki yanda da küçük kapılar vardı. Burada da yine kitabelerin olduğu düşünüldüğü ama sonradan çıkarıldığı delikler vardı Altınkapı’nın çevresinde. Sonrasında yan tarafından diğer kuleye geçiş yaptık, Altınkapı’nın hemen yanında bulunan. Burada da Genç Osman'ın öldürüldüğü düşünülen oda vardı. Burada da yine animasyonda bu olay hakkında biraz bilgi edindik. Bu yapının orta kısmında yine diğer kulelerde olduğu gibi bir kuyu vardı. Bu kuyuda da mahkumların kafası kesilip atıldığını öğrendik ve eskiden bu şu anki gibi olmasa da buralarda sular varmış. Yani deniz aslında bu tarafa kadar geliyormuş. Bunu da öğrendik bu şekilde.</t>
+  </si>
+  <si>
+    <t>Bir arkadaşıma burayı geldiğim zaman nasıl tarif edebilirim? Ya ilk başta girdiğim zaman büyük bir avlu ile karşılaştığını, onun etrafındaki kulelerin her birinin farklı işleri olduğunu, bu işlevlerin de bugün deneyimlediğimiz uygulamada genellikle.. genel detaylarıyla anlatıldığını, bazı görsellerle bunun desteklendiğini ve bu şekilde bir gezi yapmanın onun için daha bilgilendirici olacağını düşünüyorum.</t>
+  </si>
+  <si>
+    <t>Bugün, Yedikule Zindanları'nı ziyaret ettik. Girişte ilk önce elime bir tablet verdiler ve tablette bir anlatı vardı, anlatıyordu bize alanın tarihini. Aynı zamanda görüntüler, animasyonlar da vardı. İlk önce giriş kapısından başladık. Giriş kapısında tarihçesinden bahsetti. Daha sonra ağacın altına gidip etrafa baktık. Orada daha detaylı anlattı. Daha sonra Kitabeler şeyini gezdik, Kulesini gezdik. İçeri girdik, içeriye baktık, daha sonra çıktık ve Topçular'a gittik, içine giremedik oradan baktık. Orada rampa olduğunu söyledi bize heralde toplar daha kolay taşınıyormuş. Daha sonra minare, orası aslında daha önceden kalıntıymış ama restorasyon başlamış 6 ay önce, bu bilgiden bahsetti. Daha sonra Genç Osman'ın öldürüldüğü yere gittik, içeri girdik. İlk başta orada müslümanların kaldığı bölümü, daha sonra üst kata çıktık Genç Osman'ın öldürüldüğü odaya, daha sonra en üste çıkıp manzaraya baktık çok güzeldi. Daha sonra da Altınkapı'ya baktık ve küçük avluya indik. Küçük avluda etrafa baktık, Altınkapı'yı gördük. Bu kadar.</t>
   </si>
 </sst>
 </file>
@@ -511,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A8BE8-7532-49E9-9C69-99A017372AC8}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,6 +703,38 @@
         <v>39</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
